--- a/009工作OKR/2020003数据流一体化/code/设备表定位.xlsx
+++ b/009工作OKR/2020003数据流一体化/code/设备表定位.xlsx
@@ -14,72 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>R1102</t>
+    <t>序号</t>
   </si>
   <si>
-    <t>甲醇浓缩釜</t>
+    <t>设备位号</t>
   </si>
   <si>
-    <t>外形尺寸：</t>
+    <t>设备名称</t>
   </si>
   <si>
-    <t>S30408</t>
-  </si>
-  <si>
-    <t>台</t>
-  </si>
-  <si>
-    <t>甲供</t>
-  </si>
-  <si>
-    <t>加工</t>
-  </si>
-  <si>
-    <t>8000L</t>
-  </si>
-  <si>
-    <t>120℃</t>
-  </si>
-  <si>
-    <t>0.1MPa</t>
-  </si>
-  <si>
-    <t>22kW</t>
-  </si>
-  <si>
-    <t>R1103</t>
-  </si>
-  <si>
-    <t>3000L</t>
-  </si>
-  <si>
-    <t>5.5kW</t>
-  </si>
-  <si>
-    <t>R1104</t>
-  </si>
-  <si>
-    <t>5000Kg</t>
-  </si>
-  <si>
-    <t>5000L</t>
-  </si>
-  <si>
-    <t>100℃</t>
-  </si>
-  <si>
-    <t>7.5kW</t>
-  </si>
-  <si>
-    <t>R1101</t>
-  </si>
-  <si>
-    <t>11kW</t>
-  </si>
-  <si>
-    <t>空行占位</t>
+    <t>规格</t>
   </si>
 </sst>
 </file>
@@ -88,11 +34,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,38 +46,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,69 +112,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,14 +127,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -238,20 +190,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,79 +218,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,103 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,10 +438,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,15 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,163 +492,185 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,209 +1019,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:BP30"/>
+  <dimension ref="A29:BP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="6" spans="3:17">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16">
-        <v>5000</v>
-      </c>
-      <c r="P16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="29" spans="1:68">
       <c r="A29">
         <v>1</v>
@@ -1465,15 +1233,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="3:68">
-      <c r="C30">
+    <row r="30" spans="1:68">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
+      <c r="K30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -1498,6 +1269,232 @@
       </c>
       <c r="BP30">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34" s="5">
+        <v>11</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>15</v>
+      </c>
+      <c r="P34" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+      <c r="R34">
+        <v>18</v>
+      </c>
+      <c r="S34">
+        <v>19</v>
+      </c>
+      <c r="T34">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>21</v>
+      </c>
+      <c r="V34" s="6">
+        <v>22</v>
+      </c>
+      <c r="W34">
+        <v>23</v>
+      </c>
+      <c r="X34">
+        <v>24</v>
+      </c>
+      <c r="Y34">
+        <v>25</v>
+      </c>
+      <c r="Z34">
+        <v>26</v>
+      </c>
+      <c r="AA34">
+        <v>27</v>
+      </c>
+      <c r="AB34">
+        <v>28</v>
+      </c>
+      <c r="AC34">
+        <v>29</v>
+      </c>
+      <c r="AD34">
+        <v>30</v>
+      </c>
+      <c r="AE34">
+        <v>31</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG34">
+        <v>33</v>
+      </c>
+      <c r="AH34">
+        <v>34</v>
+      </c>
+      <c r="AI34">
+        <v>35</v>
+      </c>
+      <c r="AJ34">
+        <v>36</v>
+      </c>
+      <c r="AK34">
+        <v>37</v>
+      </c>
+      <c r="AL34">
+        <v>38</v>
+      </c>
+      <c r="AM34">
+        <v>39</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO34">
+        <v>41</v>
+      </c>
+      <c r="AP34">
+        <v>42</v>
+      </c>
+      <c r="AQ34">
+        <v>43</v>
+      </c>
+      <c r="AR34">
+        <v>44</v>
+      </c>
+      <c r="AS34">
+        <v>45</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>46</v>
+      </c>
+      <c r="AU34">
+        <v>47</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>48</v>
+      </c>
+      <c r="AW34">
+        <v>49</v>
+      </c>
+      <c r="AX34">
+        <v>50</v>
+      </c>
+      <c r="AY34">
+        <v>51</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>52</v>
+      </c>
+      <c r="BA34">
+        <v>53</v>
+      </c>
+      <c r="BB34">
+        <v>54</v>
+      </c>
+      <c r="BC34">
+        <v>55</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>56</v>
+      </c>
+      <c r="BE34">
+        <v>57</v>
+      </c>
+      <c r="BF34">
+        <v>58</v>
+      </c>
+      <c r="BG34">
+        <v>59</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>60</v>
+      </c>
+      <c r="BI34">
+        <v>61</v>
+      </c>
+      <c r="BJ34">
+        <v>62</v>
+      </c>
+      <c r="BK34">
+        <v>63</v>
+      </c>
+      <c r="BL34">
+        <v>64</v>
+      </c>
+      <c r="BM34">
+        <v>65</v>
+      </c>
+      <c r="BN34">
+        <v>66</v>
+      </c>
+      <c r="BO34">
+        <v>67</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="P35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/009工作OKR/2020003数据流一体化/code/设备表定位.xlsx
+++ b/009工作OKR/2020003数据流一体化/code/设备表定位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16800"/>
+    <workbookView windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>序号</t>
   </si>
@@ -27,16 +27,37 @@
   <si>
     <t>规格</t>
   </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>材质</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单重</t>
+  </si>
+  <si>
+    <t>总重</t>
+  </si>
+  <si>
+    <t>甲供</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -59,23 +80,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,18 +110,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,13 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,6 +155,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -135,69 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,85 +245,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,97 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,158 +539,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1021,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A29:BP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1340,7 +1360,7 @@
       <c r="U34">
         <v>21</v>
       </c>
-      <c r="V34" s="6">
+      <c r="V34" s="5">
         <v>22</v>
       </c>
       <c r="W34">
@@ -1482,7 +1502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:68">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1495,6 +1515,30 @@
       <c r="K35" s="2"/>
       <c r="P35" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP35" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
